--- a/public/data/manual.xlsx
+++ b/public/data/manual.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\domains\avia.loc\public\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenServer\domains\avia.loc\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB765438-5C51-4C08-BF27-D77E5C2E28E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="1725" windowWidth="24240" windowHeight="13020" xr2:uid="{64447DF4-E139-4AED-A304-B317727FA8BC}"/>
+    <workbookView xWindow="19080" yWindow="1725" windowWidth="24240" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,9 +47,6 @@
     <t>revision date</t>
   </si>
   <si>
-    <t>training_name</t>
-  </si>
-  <si>
     <t>training_hours</t>
   </si>
   <si>
@@ -72,9 +68,6 @@
     <t>16040-101/-103/-105/-107/-109/-111/-113/-117/-119</t>
   </si>
   <si>
-    <t>unit part_number</t>
-  </si>
-  <si>
     <t>40110-101 thru 118</t>
   </si>
   <si>
@@ -486,12 +479,6 @@
     <t>32-21-01</t>
   </si>
   <si>
-    <t>32-10-02-E</t>
-  </si>
-  <si>
-    <t>32-10-02-S</t>
-  </si>
-  <si>
     <t>22175-105/-107/-109/-111/-113/-115</t>
   </si>
   <si>
@@ -538,12 +525,24 @@
   </si>
   <si>
     <t>01.oct.2020</t>
+  </si>
+  <si>
+    <t>32-10-02-Safran</t>
+  </si>
+  <si>
+    <t>32-10-02-Eleb</t>
+  </si>
+  <si>
+    <t>unit _name</t>
+  </si>
+  <si>
+    <t>unit_name_training</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -594,7 +593,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -905,25 +904,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC593508-D031-4123-817D-A24C7B657064}">
-  <dimension ref="A1:J38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="65.7109375" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="65.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="3" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -931,906 +930,927 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="F1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
       </c>
       <c r="G2" s="3">
         <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>23</v>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
       <c r="G3" s="3">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="3">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
+      <c r="E4" t="s">
+        <v>22</v>
       </c>
       <c r="G4" s="3">
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="3">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="3">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="J5" s="3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="4">
+      <c r="E6" s="4">
         <v>4019501</v>
       </c>
-      <c r="C6" t="s">
+      <c r="H6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="3">
-        <v>15</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="J6" s="3" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="3">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="3">
-        <v>18</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>39</v>
+      <c r="E7" t="s">
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="3">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="3">
-        <v>19</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
         <v>46</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="3">
+        <v>36</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="3">
-        <v>36</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>49</v>
+      <c r="E9" t="s">
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="3">
+        <v>37</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="3">
-        <v>37</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="3">
+        <v>42</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" t="s">
         <v>55</v>
       </c>
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="3">
-        <v>42</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" t="s">
-        <v>57</v>
-      </c>
       <c r="I11" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="3">
+        <v>50</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
         <v>59</v>
-      </c>
-      <c r="B12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="3">
-        <v>50</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="G12" s="3">
         <v>8</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
         <v>65</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="3">
+        <v>65</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="3">
-        <v>65</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>68</v>
+      <c r="E13" t="s">
+        <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
         <v>69</v>
       </c>
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C14" s="3">
         <v>68</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>22</v>
+      <c r="D14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
         <v>76</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="3">
+        <v>83</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="3">
-        <v>83</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>79</v>
+      <c r="E15" t="s">
+        <v>75</v>
       </c>
       <c r="G15" s="3">
         <v>8</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" t="s">
         <v>81</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="3">
+        <v>83</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="3">
-        <v>83</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>84</v>
+      <c r="E16" t="s">
+        <v>80</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
         <v>85</v>
       </c>
-      <c r="B17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="C17" s="3">
         <v>83</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>79</v>
+      <c r="D17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" t="s">
+        <v>84</v>
       </c>
       <c r="H17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="3">
+        <v>83</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="3">
-        <v>83</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>90</v>
+      <c r="E18" t="s">
+        <v>87</v>
       </c>
       <c r="H18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" t="s">
         <v>91</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="3">
+        <v>83</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="3">
-        <v>83</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>94</v>
+      <c r="E19" t="s">
+        <v>90</v>
       </c>
       <c r="H19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" t="s">
         <v>95</v>
       </c>
-      <c r="B20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="C20" s="3">
         <v>83</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>79</v>
+      <c r="D20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" t="s">
+        <v>94</v>
       </c>
       <c r="H20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="3">
+        <v>102</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
+        <v>135</v>
+      </c>
+      <c r="H21" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="3">
-        <v>102</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H21" t="s">
-        <v>140</v>
-      </c>
       <c r="I21" s="3" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" t="s">
         <v>98</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="3">
+        <v>111</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="3">
-        <v>111</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>101</v>
+      <c r="E22" t="s">
+        <v>97</v>
       </c>
       <c r="H22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" t="s">
         <v>102</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="3">
+        <v>113</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" t="s">
         <v>103</v>
-      </c>
-      <c r="C23" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="3">
-        <v>113</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H23" t="s">
-        <v>105</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="3">
+        <v>12</v>
+      </c>
+      <c r="C24" s="3">
         <v>115</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>68</v>
+      <c r="D24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
+        <v>105</v>
       </c>
       <c r="H24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="3">
+        <v>122</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" t="s">
         <v>108</v>
-      </c>
-      <c r="B25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="3">
-        <v>122</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H25" t="s">
-        <v>110</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" t="s">
         <v>111</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="3">
+        <v>122</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C26" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" s="3">
-        <v>122</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>114</v>
+      <c r="E26" t="s">
+        <v>110</v>
       </c>
       <c r="H26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" t="s">
         <v>115</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="3">
+        <v>123</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
+        <v>114</v>
+      </c>
+      <c r="H27" t="s">
         <v>117</v>
-      </c>
-      <c r="D27" s="3">
-        <v>123</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H27" t="s">
-        <v>119</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" t="s">
         <v>120</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="3">
+        <v>143</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
+        <v>119</v>
+      </c>
+      <c r="H28" t="s">
         <v>122</v>
       </c>
-      <c r="D28" s="3">
-        <v>143</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="H28" t="s">
-        <v>124</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="J28" s="3" t="s">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" t="s">
         <v>126</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="3">
+        <v>145</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
+        <v>125</v>
+      </c>
+      <c r="H29" t="s">
+        <v>122</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D29" s="3">
-        <v>145</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H29" t="s">
-        <v>124</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="J29" s="3" t="s">
-        <v>130</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
-      </c>
-      <c r="C30" t="s">
-        <v>132</v>
-      </c>
-      <c r="D30" s="3">
+        <v>130</v>
+      </c>
+      <c r="C30" s="3">
         <v>145</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="D30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" t="s">
         <v>129</v>
       </c>
       <c r="H30" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>130</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" t="s">
         <v>133</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" s="3">
+        <v>146</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C31" t="s">
-        <v>135</v>
-      </c>
-      <c r="D31" s="3">
-        <v>146</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>136</v>
+      <c r="E31" t="s">
+        <v>132</v>
       </c>
       <c r="H31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D32" s="3">
-        <v>158</v>
+      <c r="A32" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="3">
+        <v>159</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" s="4">
+        <v>10018310</v>
+      </c>
+      <c r="H32" t="s">
+        <v>138</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B33" s="4">
-        <v>10018310</v>
-      </c>
-      <c r="C33" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33" s="3">
-        <v>159</v>
-      </c>
-      <c r="E33" s="3" t="s">
         <v>143</v>
       </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="3">
+        <v>181</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" t="s">
+        <v>144</v>
+      </c>
       <c r="H33" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B34" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" s="3">
+        <v>182</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E34" t="s">
+        <v>148</v>
+      </c>
+      <c r="H34" t="s">
         <v>146</v>
       </c>
-      <c r="C34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="3">
-        <v>181</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H34" t="s">
-        <v>148</v>
-      </c>
       <c r="I34" s="3" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B35" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="3">
+        <v>182</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" t="s">
         <v>152</v>
       </c>
-      <c r="C35" t="s">
-        <v>153</v>
-      </c>
-      <c r="D35" s="3">
-        <v>182</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="H35" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1838,80 +1858,55 @@
         <v>155</v>
       </c>
       <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="3">
+        <v>183</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" t="s">
         <v>156</v>
       </c>
-      <c r="C36" t="s">
-        <v>157</v>
-      </c>
-      <c r="D36" s="3">
-        <v>182</v>
-      </c>
-      <c r="E36" s="3" t="s">
+      <c r="H36" t="s">
         <v>158</v>
       </c>
-      <c r="H36" t="s">
-        <v>148</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>53</v>
+      <c r="I36" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B37" t="s">
-        <v>160</v>
-      </c>
-      <c r="C37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="3">
-        <v>183</v>
-      </c>
-      <c r="E37" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" s="3">
+        <v>186</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E37" t="s">
         <v>161</v>
       </c>
       <c r="H37" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J37" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B38" t="s">
-        <v>165</v>
-      </c>
-      <c r="C38" t="s">
-        <v>166</v>
-      </c>
-      <c r="D38" s="3">
-        <v>186</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H38" t="s">
-        <v>148</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>20</v>
+      <c r="J37" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>